--- a/biology/Biologie cellulaire et moléculaire/Site_d'initiation_de_la_transcription/Site_d'initiation_de_la_transcription.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Site_d'initiation_de_la_transcription/Site_d'initiation_de_la_transcription.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Site_d%27initiation_de_la_transcription</t>
+          <t>Site_d'initiation_de_la_transcription</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site d'initiation de la transcription (en anglais, transcription start site, TSS) est le premier nucléotide de l'ADN qui est transcrit en ARN.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Site_d%27initiation_de_la_transcription</t>
+          <t>Site_d'initiation_de_la_transcription</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Identification du site d'initiation de la transcription</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site d'initiation de la transcription ne correspond pas au premier acide aminé de la protéine correspondante (si cet ARN est traduit). Il est difficile de déterminer sa position exacte par bio-informatique, mais il existe plusieurs méthodes expérimentales pour le localiser :
 L'extension d'amorce
